--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Reset</t>
   </si>
 </sst>
 </file>
@@ -235,12 +241,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,15 +273,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,20 +564,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -574,7 +594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -591,14 +611,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
@@ -607,15 +627,18 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -624,8 +647,11 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -642,7 +668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -659,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -673,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -687,7 +713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -701,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -712,7 +738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -723,27 +749,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -222,17 +222,26 @@
     <t>PE</t>
   </si>
   <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>Reset</t>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>USART2</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +249,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,13 +265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,17 +294,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +591,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +636,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -627,18 +651,16 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -647,8 +669,8 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>68</v>
+      <c r="H5" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -664,8 +686,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -681,8 +706,11 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -695,7 +723,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -706,10 +734,10 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -720,10 +748,10 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -731,10 +759,10 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -742,15 +770,15 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -760,18 +788,20 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -784,8 +814,14 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -798,8 +834,14 @@
       <c r="D18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -813,7 +855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -825,10 +867,12 @@
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Display</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
   </si>
 </sst>
 </file>
@@ -304,10 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,13 +715,13 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -720,7 +732,7 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -734,7 +746,7 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -748,7 +760,7 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -759,7 +771,7 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -770,7 +782,7 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -788,20 +800,24 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -820,8 +836,14 @@
       <c r="F17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -840,8 +862,14 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -855,7 +883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -867,10 +895,11 @@
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -268,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +305,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,11 +326,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,6 +424,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,20 +722,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -630,7 +752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -647,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -665,7 +787,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -678,14 +800,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -705,7 +827,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -725,7 +847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -739,7 +861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -753,7 +875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -767,7 +889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -778,7 +900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -789,17 +911,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
@@ -812,12 +934,16 @@
         <v>69</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="12"/>
+      <c r="I16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -836,14 +962,20 @@
       <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -862,14 +994,20 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -882,24 +1020,93 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10">
+        <v>3</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="10">
+        <v>5</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="10">
+        <v>6</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="10">
+        <v>7</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="11">
+        <v>8</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>exti</t>
+  </si>
+  <si>
+    <t>out pp</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,27 +427,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,28 +929,28 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -962,20 +969,23 @@
       <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -994,20 +1004,23 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <v>2</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1020,81 +1033,99 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>3</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <v>4</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G21" s="10" t="s">
+      <c r="K20" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <v>5</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="11" t="s">
+      <c r="K21" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <v>6</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I23" s="10">
+      <c r="K22" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="8">
         <v>7</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="11">
+      <c r="K23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="9">
         <v>8</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="13" t="s">
         <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1014,10 +1014,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1043,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1083,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1100,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1111,10 +1111,10 @@
         <v>7</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1122,10 +1122,10 @@
         <v>8</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>out pp</t>
+  </si>
+  <si>
+    <t>Sensores</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,17 +742,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -759,7 +769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -776,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -789,12 +799,12 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="20" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -807,14 +817,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -834,7 +844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -854,7 +864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -867,8 +877,11 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -882,7 +895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -896,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -907,7 +920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -918,17 +931,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
@@ -950,7 +963,7 @@
       </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -985,7 +998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1072,7 +1085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G21" s="8" t="s">
         <v>78</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G22" s="9" t="s">
         <v>79</v>
       </c>
@@ -1106,7 +1119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I23" s="8">
         <v>7</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I24" s="9">
         <v>8</v>
       </c>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Sensores</t>
+  </si>
+  <si>
+    <t>Cambiar pq tiene el stlink</t>
+  </si>
+  <si>
+    <t>Cambie RS y E</t>
   </si>
 </sst>
 </file>
@@ -443,6 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,7 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,18 +747,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -769,7 +775,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -786,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -799,12 +805,12 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -817,18 +823,21 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -844,11 +853,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -863,8 +872,11 @@
       <c r="H7" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -877,11 +889,11 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -895,7 +907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -909,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -920,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -931,39 +943,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1085,12 +1097,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G21" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I21" s="8">
         <v>5</v>
@@ -1102,12 +1114,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G22" s="9" t="s">
         <v>79</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I22" s="8">
         <v>6</v>
@@ -1119,7 +1131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I23" s="8">
         <v>7</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="9">
         <v>8</v>
       </c>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -237,12 +237,6 @@
     <t>Display</t>
   </si>
   <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>PD5</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -270,10 +264,16 @@
     <t>Sensores</t>
   </si>
   <si>
-    <t>Cambiar pq tiene el stlink</t>
-  </si>
-  <si>
     <t>Cambie RS y E</t>
+  </si>
+  <si>
+    <t>USART6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PA1</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,7 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -465,6 +470,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +789,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
@@ -785,7 +798,7 @@
       <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -793,51 +806,48 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
+      <c r="H5" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -846,7 +856,7 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -857,50 +867,50 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>82</v>
+      <c r="H8" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -911,13 +921,13 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -939,7 +949,7 @@
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -954,26 +964,26 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -994,23 +1004,23 @@
       <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="8">
+      <c r="H17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1029,20 +1039,20 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="8">
+      <c r="H18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7">
         <v>2</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>80</v>
+      <c r="J18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1058,20 +1068,24 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="E19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>80</v>
+      <c r="J19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,83 +1095,96 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
         <v>6</v>
       </c>
-      <c r="I20" s="8">
-        <v>4</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="8">
-        <v>5</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="9" t="s">
+      <c r="J22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="8">
-        <v>6</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>7</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>81</v>
+      <c r="J23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>8</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>81</v>
+      <c r="J24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -274,6 +274,36 @@
   </si>
   <si>
     <t>PA1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Golpes</t>
   </si>
 </sst>
 </file>
@@ -295,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +491,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,14 +514,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,17 +805,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -788,7 +832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -805,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -823,7 +867,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -843,7 +887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -863,7 +907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -886,7 +930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -903,7 +947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -917,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -931,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -942,7 +986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -953,39 +997,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1010,8 +1054,8 @@
       <c r="H17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="7">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>33</v>
@@ -1020,7 +1064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1045,8 +1089,8 @@
       <c r="H18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="7">
-        <v>2</v>
+      <c r="I18" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>35</v>
@@ -1055,7 +1099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1068,18 +1112,18 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="7">
-        <v>3</v>
+      <c r="I19" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>37</v>
@@ -1088,7 +1132,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1098,7 +1146,7 @@
       <c r="E20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="15" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1107,8 +1155,8 @@
       <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="7">
-        <v>4</v>
+      <c r="I20" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>39</v>
@@ -1117,11 +1165,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -1130,8 +1184,8 @@
       <c r="H21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="7">
-        <v>5</v>
+      <c r="I21" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>84</v>
@@ -1140,15 +1194,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="7">
-        <v>6</v>
+      <c r="I22" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>27</v>
@@ -1157,9 +1217,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="7">
-        <v>7</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>29</v>
@@ -1168,9 +1228,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="8">
-        <v>8</v>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>31</v>
@@ -1183,13 +1243,14 @@
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -493,6 +493,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,20 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,17 +805,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -832,7 +832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -867,7 +867,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -887,7 +887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -930,7 +930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -947,7 +947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -961,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -975,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -986,7 +986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -997,39 +997,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1112,10 +1112,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
@@ -1132,11 +1132,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1165,11 +1165,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1194,11 +1194,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -1217,7 +1217,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I23" s="7" t="s">
         <v>87</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="8" t="s">
         <v>88</v>
       </c>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -304,13 +304,46 @@
   </si>
   <si>
     <t>Golpes</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>||||||||</t>
+  </si>
+  <si>
+    <t>F1, F2</t>
+  </si>
+  <si>
+    <t>F3, F4</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +357,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +420,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -469,11 +515,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,6 +565,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,6 +610,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -802,20 +889,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -832,7 +922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -849,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -867,7 +957,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -887,7 +977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -907,7 +997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -930,7 +1020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -947,7 +1037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -961,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -975,7 +1065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -986,7 +1076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -997,39 +1087,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="24"/>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19">
+        <v>2</v>
+      </c>
+      <c r="O16" s="19">
+        <v>3</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1063,8 +1165,20 @@
       <c r="K17" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="19">
+        <v>4</v>
+      </c>
+      <c r="N17" s="19">
+        <v>5</v>
+      </c>
+      <c r="O17" s="19">
+        <v>6</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1098,8 +1212,20 @@
       <c r="K18" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="19">
+        <v>7</v>
+      </c>
+      <c r="N18" s="19">
+        <v>8</v>
+      </c>
+      <c r="O18" s="19">
+        <v>9</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1112,10 +1238,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
@@ -1131,12 +1257,24 @@
       <c r="K19" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="M19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="26"/>
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1164,8 +1302,12 @@
       <c r="K20" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>93</v>
       </c>
@@ -1193,8 +1335,20 @@
       <c r="K21" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
@@ -1217,7 +1371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I23" s="7" t="s">
         <v>87</v>
       </c>
@@ -1228,7 +1382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="8" t="s">
         <v>88</v>
       </c>
@@ -1243,7 +1397,8 @@
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="N20:O20"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="E19:F19"/>
@@ -1253,6 +1408,6 @@
     <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>C3, C4</t>
+  </si>
+  <si>
+    <t>SPI</t>
   </si>
 </sst>
 </file>
@@ -543,13 +546,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -604,6 +606,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +936,7 @@
       <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -940,25 +944,27 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
@@ -967,13 +973,13 @@
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -981,7 +987,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -990,7 +996,7 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1001,19 +1007,19 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I7" t="s">
@@ -1021,19 +1027,19 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1041,10 +1047,10 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1055,13 +1061,13 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1069,7 +1075,7 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1080,10 +1086,10 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1098,44 +1104,44 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="23" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="M16" s="19">
+      <c r="J16" s="23"/>
+      <c r="M16" s="18">
         <v>1</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <v>2</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <v>3</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="s">
@@ -1150,39 +1156,39 @@
       <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <v>4</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <v>5</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>6</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
@@ -1197,39 +1203,39 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <v>7</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>8</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="18">
         <v>9</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="s">
@@ -1238,101 +1244,101 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <v>0</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="22"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="M21" t="s">
@@ -1344,52 +1350,52 @@
       <c r="O21" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>SPI</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>SDA(GPIO)</t>
   </si>
 </sst>
 </file>
@@ -576,6 +582,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,8 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,20 +902,20 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="16" width="5.7109375" customWidth="1"/>
+    <col min="13" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -926,7 +932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -943,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -963,7 +969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -983,7 +989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1093,37 +1099,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="25"/>
       <c r="M16" s="18">
         <v>1</v>
       </c>
@@ -1137,11 +1143,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="s">
@@ -1184,11 +1190,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
@@ -1231,11 +1237,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="s">
@@ -1244,10 +1250,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -1276,11 +1282,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -1308,18 +1316,16 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="21"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="27"/>
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
@@ -1354,12 +1360,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>26</v>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>77</v>
@@ -1377,7 +1383,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>87</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
@@ -1406,7 +1418,7 @@
   <mergeCells count="8">
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>SDA(GPIO)</t>
+  </si>
+  <si>
+    <t>Uso futuro</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +438,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -552,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,6 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,21 +911,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="16" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -932,7 +943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -949,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -969,7 +980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1062,22 +1073,25 @@
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="H9" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1088,28 +1102,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>47</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -1321,7 +1335,7 @@
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>80</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
@@ -1400,7 +1414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="7" t="s">
         <v>88</v>
       </c>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -349,6 +349,21 @@
   </si>
   <si>
     <t>Uso futuro</t>
+  </si>
+  <si>
+    <t>I2C1</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PB6</t>
   </si>
 </sst>
 </file>
@@ -377,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +459,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -561,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,6 +620,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,7 +651,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,18 +1109,18 @@
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1103,10 +1139,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1124,26 +1160,26 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="26"/>
       <c r="M16" s="18">
         <v>1</v>
       </c>
@@ -1264,10 +1300,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -1330,17 +1366,21 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="23" t="s">
+      <c r="N20" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="E21" s="7" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="34" t="s">
         <v>68</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -1381,6 +1421,12 @@
       <c r="B22" s="16" t="s">
         <v>41</v>
       </c>
+      <c r="C22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="G22" s="7" t="s">
         <v>77</v>
       </c>
@@ -1403,6 +1449,12 @@
       </c>
       <c r="B23" s="17" t="s">
         <v>26</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>114</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>87</v>
@@ -1429,7 +1481,7 @@
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A21:B21"/>
@@ -1438,6 +1490,7 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -364,6 +364,48 @@
   </si>
   <si>
     <t>PB6</t>
+  </si>
+  <si>
+    <t>Mapa de memoria - Sector 7 de la FLASH</t>
+  </si>
+  <si>
+    <t>Base address = 0x0806 0000</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Cant bytes</t>
+  </si>
+  <si>
+    <t>int condicion</t>
+  </si>
+  <si>
+    <t>Operario</t>
+  </si>
+  <si>
+    <t>char nombre[9]</t>
+  </si>
+  <si>
+    <t>char id [5]</t>
+  </si>
+  <si>
+    <t>long golpes</t>
+  </si>
+  <si>
+    <t>long unidades</t>
+  </si>
+  <si>
+    <t>int productividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int condicion </t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -392,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +513,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -584,11 +638,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +884,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,15 +917,57 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,24 +1253,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -979,7 +1288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -996,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1016,7 +1325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1079,7 +1388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -1149,37 +1458,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="25" t="s">
+      <c r="H16" s="36"/>
+      <c r="I16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="26"/>
+      <c r="J16" s="29"/>
       <c r="M16" s="18">
         <v>1</v>
       </c>
@@ -1193,7 +1502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1240,7 +1549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1287,7 +1596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
@@ -1300,10 +1609,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -1366,21 +1675,21 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -1414,7 +1723,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -1424,7 +1733,7 @@
       <c r="C22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -1443,7 +1752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
@@ -1453,7 +1762,7 @@
       <c r="C23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="26" t="s">
         <v>114</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -1466,7 +1775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
@@ -1475,13 +1784,824 @@
       </c>
       <c r="K24" s="12" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="44">
+        <v>0</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47">
+        <v>2</v>
+      </c>
+      <c r="F31" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="49">
+        <f>A31+E31</f>
+        <v>2</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52">
+        <v>9</v>
+      </c>
+      <c r="F32" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="49">
+        <f t="shared" ref="A33:A44" si="0">A32+E32</f>
+        <v>11</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52">
+        <v>5</v>
+      </c>
+      <c r="F33" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="49">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52">
+        <v>4</v>
+      </c>
+      <c r="F34" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="49">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52">
+        <v>4</v>
+      </c>
+      <c r="F35" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="49">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52">
+        <v>2</v>
+      </c>
+      <c r="F36" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="49">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="52">
+        <v>6</v>
+      </c>
+      <c r="F37" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="56">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59">
+        <v>2</v>
+      </c>
+      <c r="F38" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="56">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59">
+        <v>10</v>
+      </c>
+      <c r="F39" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="56">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59">
+        <v>6</v>
+      </c>
+      <c r="F40" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59">
+        <v>4</v>
+      </c>
+      <c r="F41" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59">
+        <v>4</v>
+      </c>
+      <c r="F42" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="56">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59">
+        <v>2</v>
+      </c>
+      <c r="F43" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="56">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="59">
+        <v>6</v>
+      </c>
+      <c r="F44" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="49">
+        <v>64</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52">
+        <v>2</v>
+      </c>
+      <c r="F45" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="56">
+        <f>A45+32</f>
+        <v>96</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59">
+        <v>2</v>
+      </c>
+      <c r="F47" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="56"/>
+      <c r="B48" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="49">
+        <f>A47+32</f>
+        <v>128</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52">
+        <v>2</v>
+      </c>
+      <c r="F49" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="49"/>
+      <c r="B50" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="53"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="56">
+        <f>A49+32</f>
+        <v>160</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="59">
+        <v>2</v>
+      </c>
+      <c r="F51" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="56"/>
+      <c r="B52" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="49">
+        <f>A51+32</f>
+        <v>192</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52">
+        <v>2</v>
+      </c>
+      <c r="F53" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="49"/>
+      <c r="B54" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="53"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="56">
+        <f>A53+32</f>
+        <v>224</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59">
+        <v>2</v>
+      </c>
+      <c r="F55" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="56"/>
+      <c r="B56" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="49">
+        <f>A55+32</f>
+        <v>256</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52">
+        <v>2</v>
+      </c>
+      <c r="F57" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="49"/>
+      <c r="B58" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="53"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="56">
+        <f>A57+32</f>
+        <v>288</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="56"/>
+      <c r="B60" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="49">
+        <f>A59+32</f>
+        <v>320</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52">
+        <v>2</v>
+      </c>
+      <c r="F61" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="49"/>
+      <c r="B62" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="56">
+        <f>A61+32</f>
+        <v>352</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59">
+        <v>2</v>
+      </c>
+      <c r="F63" s="60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="56"/>
+      <c r="B64" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="49">
+        <f>A63+32</f>
+        <v>384</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52">
+        <v>2</v>
+      </c>
+      <c r="F65" s="53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="49"/>
+      <c r="B66" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="53"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="56">
+        <f>A65+32</f>
+        <v>416</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="59">
+        <v>2</v>
+      </c>
+      <c r="F67" s="60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="56"/>
+      <c r="B68" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="60"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="49">
+        <f>A67+32</f>
+        <v>448</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="52">
+        <v>2</v>
+      </c>
+      <c r="F69" s="53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="49"/>
+      <c r="B70" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="53"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="56">
+        <f>A69+32</f>
+        <v>480</v>
+      </c>
+      <c r="B71" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="59">
+        <v>2</v>
+      </c>
+      <c r="F71" s="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="56"/>
+      <c r="B72" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="60"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="49">
+        <f>A71+32</f>
+        <v>512</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="52">
+        <v>2</v>
+      </c>
+      <c r="F73" s="53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="49"/>
+      <c r="B74" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="53"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="56">
+        <f>A73+32</f>
+        <v>544</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="59">
+        <v>2</v>
+      </c>
+      <c r="F75" s="60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="56"/>
+      <c r="B76" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="60"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="49">
+        <f>A75+32</f>
+        <v>576</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="52">
+        <v>2</v>
+      </c>
+      <c r="F77" s="53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="49"/>
+      <c r="B78" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="53"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="56">
+        <f>A77+32</f>
+        <v>608</v>
+      </c>
+      <c r="B79" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="59">
+        <v>2</v>
+      </c>
+      <c r="F79" s="60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="63">
+        <f>A79+26</f>
+        <v>634</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="66">
+        <v>6</v>
+      </c>
+      <c r="F80" s="67">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:A46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="62">
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A21:B21"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -406,6 +406,105 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>RFID_MOSI</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>RFID_MISO</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>RFID_SCK</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>Denominación</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Teclado F1</t>
+  </si>
+  <si>
+    <t>Input mode</t>
+  </si>
+  <si>
+    <t>Teclado F2</t>
+  </si>
+  <si>
+    <t>Teclado F3</t>
+  </si>
+  <si>
+    <t>Teclado F4</t>
+  </si>
+  <si>
+    <t>Teclado C1</t>
+  </si>
+  <si>
+    <t>Output Push Pull</t>
+  </si>
+  <si>
+    <t>Sensor unidades</t>
+  </si>
+  <si>
+    <t>External Interrupt Mode with Rising edge trigger detection</t>
+  </si>
+  <si>
+    <t>Led Azul</t>
+  </si>
+  <si>
+    <t>Led Rojo</t>
+  </si>
+  <si>
+    <t>Led Naranja</t>
+  </si>
+  <si>
+    <t>Led Verde</t>
+  </si>
+  <si>
+    <t>Display D4</t>
+  </si>
+  <si>
+    <t>Display D5</t>
+  </si>
+  <si>
+    <t>Display D6</t>
+  </si>
+  <si>
+    <t>Display D7</t>
+  </si>
+  <si>
+    <t>Teclado C3</t>
+  </si>
+  <si>
+    <t>Sensor golpes</t>
+  </si>
+  <si>
+    <t>Display RS</t>
+  </si>
+  <si>
+    <t>Display E</t>
+  </si>
+  <si>
+    <t>Teclado C2</t>
+  </si>
+  <si>
+    <t>RFID_SDA</t>
+  </si>
+  <si>
+    <t>Teclado C4</t>
   </si>
 </sst>
 </file>
@@ -526,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -847,11 +946,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,87 +1044,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,26 +1656,26 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35" t="s">
+      <c r="F16" s="49"/>
+      <c r="G16" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="29"/>
+      <c r="J16" s="44"/>
       <c r="M16" s="18">
         <v>1</v>
       </c>
@@ -1609,10 +1796,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -1675,20 +1862,20 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="27"/>
+      <c r="O20" s="42"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="24" t="s">
         <v>68</v>
       </c>
@@ -1787,760 +1974,994 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44">
+      <c r="A31" s="30">
         <v>0</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="31">
         <v>2</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="49">
+      <c r="A32" s="33">
         <f>A31+E31</f>
         <v>2</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="34">
         <v>9</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="49">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
         <f t="shared" ref="A33:A44" si="0">A32+E32</f>
         <v>11</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="34">
         <v>5</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="34">
         <v>4</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="34">
         <v>4</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="34">
         <v>2</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="52">
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="34">
         <v>6</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="56">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59">
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="37">
         <v>2</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="56">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59">
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="37">
         <v>10</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="56">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="36">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59">
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="37">
         <v>6</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="56">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="37">
         <v>4</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="56">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="36">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59">
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="37">
         <v>4</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="56">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="36">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59">
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="37">
         <v>2</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="56">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="59">
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="37">
         <v>6</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49">
+      <c r="L44" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="M44" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="N44" s="77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
         <v>64</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52">
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="34">
         <v>2</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="54" t="s">
+      <c r="L45" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="N45" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="56">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
+      <c r="L46" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" s="71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="36">
         <f>A45+32</f>
         <v>96</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59">
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="37">
         <v>2</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="38">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="56"/>
-      <c r="B48" s="61" t="s">
+      <c r="L47" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
+      <c r="L48" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" s="71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
         <f>A47+32</f>
         <v>128</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52">
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="34">
         <v>2</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="35">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="54" t="s">
+      <c r="L49" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N49" s="71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="56">
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="L50" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="N50" s="71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="36">
         <f>A49+32</f>
         <v>160</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="59">
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="37">
         <v>2</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
-      <c r="B52" s="61" t="s">
+      <c r="L51" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N51" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
+      <c r="B52" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="49">
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="L52" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N52" s="71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
         <f>A51+32</f>
         <v>192</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52">
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="34">
         <v>2</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="35">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="54" t="s">
+      <c r="L53" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N53" s="71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="33"/>
+      <c r="B54" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="53"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="56">
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
+      <c r="L54" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N54" s="71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="36">
         <f>A53+32</f>
         <v>224</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="59">
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="37">
         <v>2</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="38">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
-      <c r="B56" s="61" t="s">
+      <c r="L55" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
+      <c r="L56" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N56" s="71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
         <f>A55+32</f>
         <v>256</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52">
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="34">
         <v>2</v>
       </c>
-      <c r="F57" s="53">
+      <c r="F57" s="35">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="54" t="s">
+      <c r="L57" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="M57" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N57" s="71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="33"/>
+      <c r="B58" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="56">
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="L58" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="M58" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N58" s="71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="36">
         <f>A57+32</f>
         <v>288</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59">
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="37">
         <v>2</v>
       </c>
-      <c r="F59" s="60">
+      <c r="F59" s="38">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="61" t="s">
+      <c r="L59" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N59" s="71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="36"/>
+      <c r="B60" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="49">
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="38"/>
+      <c r="L60" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
         <f>A59+32</f>
         <v>320</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52">
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="34">
         <v>2</v>
       </c>
-      <c r="F61" s="53">
+      <c r="F61" s="35">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="54" t="s">
+      <c r="L61" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N61" s="71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="33"/>
+      <c r="B62" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="56">
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="L62" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="N62" s="71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="36">
         <f>A61+32</f>
         <v>352</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="59">
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="37">
         <v>2</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="38">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="56"/>
-      <c r="B64" s="61" t="s">
+      <c r="L63" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="N63" s="71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="49">
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38"/>
+      <c r="L64" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="N64" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="33">
         <f>A63+32</f>
         <v>384</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52">
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="34">
         <v>2</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="35">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="49"/>
-      <c r="B66" s="54" t="s">
+      <c r="L65" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="N65" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="33"/>
+      <c r="B66" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="56">
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="36">
         <f>A65+32</f>
         <v>416</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="59">
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="37">
         <v>2</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="38">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
-      <c r="B68" s="61" t="s">
+      <c r="L67" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="M67" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="N67" s="77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="36"/>
+      <c r="B68" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="60"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="49">
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="38"/>
+      <c r="L68" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="M68" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="N68" s="74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
         <f>A67+32</f>
         <v>448</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="52">
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="34">
         <v>2</v>
       </c>
-      <c r="F69" s="53">
+      <c r="F69" s="35">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="49"/>
-      <c r="B70" s="54" t="s">
+      <c r="L69" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="M69" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="N69" s="71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="33"/>
+      <c r="B70" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="53"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="56">
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
+      <c r="L70" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="M70" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="N70" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="36">
         <f>A69+32</f>
         <v>480</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="59">
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="37">
         <v>2</v>
       </c>
-      <c r="F71" s="60">
+      <c r="F71" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="56"/>
-      <c r="B72" s="61" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="36"/>
+      <c r="B72" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="60"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="49">
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
         <f>A71+32</f>
         <v>512</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="52">
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="34">
         <v>2</v>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="35">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="49"/>
-      <c r="B74" s="54" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="33"/>
+      <c r="B74" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="53"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="56">
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="35"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="36">
         <f>A73+32</f>
         <v>544</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59">
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="37">
         <v>2</v>
       </c>
-      <c r="F75" s="60">
+      <c r="F75" s="38">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="61" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="36"/>
+      <c r="B76" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="49">
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="38"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
         <f>A75+32</f>
         <v>576</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="52">
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="34">
         <v>2</v>
       </c>
-      <c r="F77" s="53">
+      <c r="F77" s="35">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="49"/>
-      <c r="B78" s="54" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="33"/>
+      <c r="B78" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="53"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="56">
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="36">
         <f>A77+32</f>
         <v>608</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="59">
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="37">
         <v>2</v>
       </c>
-      <c r="F79" s="60">
+      <c r="F79" s="38">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="63">
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="39">
         <f>A79+26</f>
         <v>634</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="66">
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="40">
         <v>6</v>
       </c>
-      <c r="F80" s="67">
+      <c r="F80" s="41">
         <v>19</v>
       </c>
     </row>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="158">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -306,24 +306,6 @@
     <t>Golpes</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>||||||||</t>
   </si>
   <si>
@@ -505,6 +487,12 @@
   </si>
   <si>
     <t>Teclado C4</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>Enter</t>
   </si>
 </sst>
 </file>
@@ -1059,72 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1155,6 +1077,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,6 +1163,219 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha arriba 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7619999" y="2876550"/>
+          <a:ext cx="371476" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>390526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flecha arriba 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8000999" y="3267075"/>
+          <a:ext cx="371476" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flecha arriba 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7619999" y="3667125"/>
+          <a:ext cx="371476" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>390526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flecha arriba 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7238999" y="3267075"/>
+          <a:ext cx="371476" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1442,23 +1643,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1475,7 +1676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1492,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1509,10 +1710,10 @@
         <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1532,7 +1733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +1776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1606,10 +1807,10 @@
         <v>35</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +1824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -1645,51 +1846,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="64"/>
+      <c r="G16" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="43" t="s">
+      <c r="H16" s="77"/>
+      <c r="I16" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="M16" s="18">
-        <v>1</v>
-      </c>
-      <c r="N16" s="18">
-        <v>2</v>
-      </c>
-      <c r="O16" s="18">
-        <v>3</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J16" s="71"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1723,20 +1916,12 @@
       <c r="K17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="18">
-        <v>4</v>
-      </c>
-      <c r="N17" s="18">
-        <v>5</v>
-      </c>
-      <c r="O17" s="18">
-        <v>6</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1770,20 +1955,12 @@
       <c r="K18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="18">
-        <v>7</v>
-      </c>
-      <c r="N18" s="18">
-        <v>8</v>
-      </c>
-      <c r="O18" s="18">
-        <v>9</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
@@ -1796,10 +1973,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -1816,24 +1993,20 @@
         <v>78</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N19" s="18"/>
       <c r="O19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -1862,20 +2035,20 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
+      <c r="N20" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="53"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="79"/>
       <c r="E21" s="24" t="s">
         <v>68</v>
       </c>
@@ -1898,19 +2071,19 @@
         <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -1918,10 +2091,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>77</v>
@@ -1939,7 +2112,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
@@ -1947,10 +2120,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>87</v>
@@ -1962,7 +2135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
@@ -1973,44 +2146,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>0</v>
       </c>
-      <c r="B31" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="B31" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="31">
         <v>2</v>
       </c>
@@ -2018,16 +2191,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <f>A31+E31</f>
         <v>2</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="34">
         <v>9</v>
       </c>
@@ -2035,16 +2208,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <f t="shared" ref="A33:A44" si="0">A32+E32</f>
         <v>11</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="34">
         <v>5</v>
       </c>
@@ -2052,16 +2225,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="34">
         <v>4</v>
       </c>
@@ -2069,16 +2242,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="34">
         <v>4</v>
       </c>
@@ -2086,16 +2259,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="34">
         <v>2</v>
       </c>
@@ -2103,16 +2276,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B37" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
+      <c r="B37" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="34">
         <v>6</v>
       </c>
@@ -2120,16 +2293,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
+      <c r="B38" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="37">
         <v>2</v>
       </c>
@@ -2137,16 +2310,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
+      <c r="B39" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="37">
         <v>10</v>
       </c>
@@ -2154,16 +2327,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B40" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
+      <c r="B40" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="37">
         <v>6</v>
       </c>
@@ -2171,16 +2344,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B41" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
+      <c r="B41" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="37">
         <v>4</v>
       </c>
@@ -2188,16 +2361,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B42" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
+      <c r="B42" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="37">
         <v>4</v>
       </c>
@@ -2205,16 +2378,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B43" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
+      <c r="B43" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="37">
         <v>2</v>
       </c>
@@ -2222,617 +2395,617 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
+      <c r="B44" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="37">
         <v>6</v>
       </c>
       <c r="F44" s="38">
         <v>1</v>
       </c>
-      <c r="L44" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="M44" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="N44" s="77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L44" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="M44" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>64</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="34">
         <v>2</v>
       </c>
       <c r="F45" s="35">
         <v>2</v>
       </c>
-      <c r="L45" s="76" t="s">
+      <c r="L45" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="M45" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="N45" s="74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M45" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
-      <c r="B46" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
+      <c r="B46" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
-      <c r="L46" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="M46" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N46" s="71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L46" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <f>A45+32</f>
         <v>96</v>
       </c>
-      <c r="B47" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
+      <c r="B47" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="37">
         <v>2</v>
       </c>
       <c r="F47" s="38">
         <v>3</v>
       </c>
-      <c r="L47" s="73" t="s">
+      <c r="L47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="M47" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N47" s="71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M47" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N47" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
-      <c r="B48" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
+      <c r="B48" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
-      <c r="L48" s="73" t="s">
+      <c r="L48" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N48" s="71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M48" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <f>A47+32</f>
         <v>128</v>
       </c>
-      <c r="B49" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="34">
         <v>2</v>
       </c>
       <c r="F49" s="35">
         <v>4</v>
       </c>
-      <c r="L49" s="73" t="s">
+      <c r="L49" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N49" s="71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="M49" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N49" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
-      <c r="B50" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="B50" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
-      <c r="L50" s="73" t="s">
+      <c r="L50" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="N50" s="71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M50" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="N50" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <f>A49+32</f>
         <v>160</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
+      <c r="B51" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="37">
         <v>2</v>
       </c>
       <c r="F51" s="38">
         <v>5</v>
       </c>
-      <c r="L51" s="73" t="s">
+      <c r="L51" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N51" s="71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M51" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
-      <c r="B52" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
+      <c r="B52" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
-      <c r="L52" s="73" t="s">
+      <c r="L52" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M52" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N52" s="71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M52" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N52" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <f>A51+32</f>
         <v>192</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="34">
         <v>2</v>
       </c>
       <c r="F53" s="35">
         <v>6</v>
       </c>
-      <c r="L53" s="73" t="s">
+      <c r="L53" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N53" s="71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M53" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
-      <c r="B54" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="B54" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="34"/>
       <c r="F54" s="35"/>
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N54" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M54" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <f>A53+32</f>
         <v>224</v>
       </c>
-      <c r="B55" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
+      <c r="B55" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="37">
         <v>2</v>
       </c>
       <c r="F55" s="38">
         <v>7</v>
       </c>
-      <c r="L55" s="73" t="s">
+      <c r="L55" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="M55" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N55" s="71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M55" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N55" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
-      <c r="B56" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
+      <c r="B56" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
-      <c r="L56" s="73" t="s">
+      <c r="L56" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N56" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="N56" s="71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <f>A55+32</f>
         <v>256</v>
       </c>
-      <c r="B57" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="34">
         <v>2</v>
       </c>
       <c r="F57" s="35">
         <v>8</v>
       </c>
-      <c r="L57" s="73" t="s">
+      <c r="L57" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M57" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N57" s="71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M57" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N57" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
-      <c r="B58" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="B58" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="34"/>
       <c r="F58" s="35"/>
-      <c r="L58" s="73" t="s">
+      <c r="L58" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M58" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N58" s="71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M58" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N58" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <f>A57+32</f>
         <v>288</v>
       </c>
-      <c r="B59" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="B59" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="37">
         <v>2</v>
       </c>
       <c r="F59" s="38">
         <v>9</v>
       </c>
-      <c r="L59" s="73" t="s">
+      <c r="L59" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="M59" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N59" s="71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="M59" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N59" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
-      <c r="B60" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
+      <c r="B60" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="L60" s="73" t="s">
+      <c r="L60" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M60" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="N60" s="71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M60" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="N60" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <f>A59+32</f>
         <v>320</v>
       </c>
-      <c r="B61" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="34">
         <v>2</v>
       </c>
       <c r="F61" s="35">
         <v>10</v>
       </c>
-      <c r="L61" s="73" t="s">
+      <c r="L61" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="N61" s="71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M61" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N61" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
-      <c r="B62" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
+      <c r="B62" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="34"/>
       <c r="F62" s="35"/>
-      <c r="L62" s="73" t="s">
+      <c r="L62" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M62" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="N62" s="71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M62" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N62" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <f>A61+32</f>
         <v>352</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
+      <c r="B63" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="37">
         <v>2</v>
       </c>
       <c r="F63" s="38">
         <v>11</v>
       </c>
-      <c r="L63" s="73" t="s">
+      <c r="L63" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="M63" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="N63" s="71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M63" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N63" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
-      <c r="B64" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
+      <c r="B64" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
-      <c r="L64" s="73" t="s">
+      <c r="L64" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M64" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="N64" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M64" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N64" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <f>A63+32</f>
         <v>384</v>
       </c>
-      <c r="B65" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
+      <c r="B65" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="34">
         <v>2</v>
       </c>
       <c r="F65" s="35">
         <v>12</v>
       </c>
-      <c r="L65" s="70" t="s">
+      <c r="L65" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="N65" s="68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M65" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33"/>
-      <c r="B66" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
+      <c r="B66" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="34"/>
       <c r="F66" s="35"/>
     </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36">
         <f>A65+32</f>
         <v>416</v>
       </c>
-      <c r="B67" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
+      <c r="B67" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="37">
         <v>2</v>
       </c>
       <c r="F67" s="38">
         <v>13</v>
       </c>
-      <c r="L67" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="M67" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="N67" s="77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L67" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="M67" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="N67" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
-      <c r="B68" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
+      <c r="B68" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
-      <c r="L68" s="76" t="s">
+      <c r="L68" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M68" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="N68" s="74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M68" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="N68" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <f>A67+32</f>
         <v>448</v>
       </c>
-      <c r="B69" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="34">
         <v>2</v>
       </c>
       <c r="F69" s="35">
         <v>14</v>
       </c>
-      <c r="L69" s="73" t="s">
+      <c r="L69" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="M69" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="N69" s="71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N69" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
-      <c r="B70" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
+      <c r="B70" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="34"/>
       <c r="F70" s="35"/>
-      <c r="L70" s="70" t="s">
+      <c r="L70" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="N70" s="68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M70" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="N70" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <f>A69+32</f>
         <v>480</v>
       </c>
-      <c r="B71" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
+      <c r="B71" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="37">
         <v>2</v>
       </c>
@@ -2840,26 +3013,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
-      <c r="B72" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
+      <c r="B72" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <f>A71+32</f>
         <v>512</v>
       </c>
-      <c r="B73" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
+      <c r="B73" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
       <c r="E73" s="34">
         <v>2</v>
       </c>
@@ -2867,26 +3040,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
-      <c r="B74" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
+      <c r="B74" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="34"/>
       <c r="F74" s="35"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <f>A73+32</f>
         <v>544</v>
       </c>
-      <c r="B75" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
+      <c r="B75" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="37">
         <v>2</v>
       </c>
@@ -2894,26 +3067,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
-      <c r="B76" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
+      <c r="B76" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
         <f>A75+32</f>
         <v>576</v>
       </c>
-      <c r="B77" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
+      <c r="B77" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="34">
         <v>2</v>
       </c>
@@ -2921,26 +3094,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
-      <c r="B78" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
+      <c r="B78" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="34"/>
       <c r="F78" s="35"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <f>A77+32</f>
         <v>608</v>
       </c>
-      <c r="B79" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
+      <c r="B79" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="37">
         <v>2</v>
       </c>
@@ -2948,16 +3121,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <f>A79+26</f>
         <v>634</v>
       </c>
-      <c r="B80" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
+      <c r="B80" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="40">
         <v>6</v>
       </c>
@@ -2970,33 +3143,25 @@
     <sortCondition ref="A3:A46"/>
   </sortState>
   <mergeCells count="62">
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3013,27 +3178,36 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -493,6 +493,69 @@
   </si>
   <si>
     <t>Enter</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>0x33</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>0x35</t>
+  </si>
+  <si>
+    <t>0x42</t>
+  </si>
+  <si>
+    <t>0x43</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>0x45</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,39 +1140,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,6 +1164,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,6 +1177,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1373,6 +1448,758 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="32966025"/>
+          <a:ext cx="19050" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="32956500"/>
+          <a:ext cx="457200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="32966025"/>
+          <a:ext cx="552450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="32956500"/>
+          <a:ext cx="1104900" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="32956500"/>
+          <a:ext cx="2400300" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector recto de flecha 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="32842200"/>
+          <a:ext cx="2886075" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="33347025"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="33337500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="33347025"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="33337500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector recto de flecha 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="33347025"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="33337500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector recto de flecha 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="33347025"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector recto de flecha 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="33337500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector recto de flecha 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="33347025"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector recto de flecha 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="33337500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1641,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:P19"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,26 +2684,26 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="76" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="64"/>
+      <c r="I16" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="71"/>
+      <c r="J16" s="57"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -1973,10 +2800,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -2035,20 +2862,20 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="69" t="s">
+      <c r="N20" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="69"/>
+      <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="79"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="24" t="s">
         <v>68</v>
       </c>
@@ -2147,27 +2974,27 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="28" t="s">
         <v>113</v>
       </c>
@@ -2179,11 +3006,11 @@
       <c r="A31" s="30">
         <v>0</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="31">
         <v>2</v>
       </c>
@@ -2196,11 +3023,11 @@
         <f>A31+E31</f>
         <v>2</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="34">
         <v>9</v>
       </c>
@@ -2213,11 +3040,11 @@
         <f t="shared" ref="A33:A44" si="0">A32+E32</f>
         <v>11</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="34">
         <v>5</v>
       </c>
@@ -2230,11 +3057,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="34">
         <v>4</v>
       </c>
@@ -2247,11 +3074,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="34">
         <v>4</v>
       </c>
@@ -2264,11 +3091,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="34">
         <v>2</v>
       </c>
@@ -2281,11 +3108,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="34">
         <v>6</v>
       </c>
@@ -2298,11 +3125,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="37">
         <v>2</v>
       </c>
@@ -2315,11 +3142,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="37">
         <v>10</v>
       </c>
@@ -2332,11 +3159,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="37">
         <v>6</v>
       </c>
@@ -2349,11 +3176,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="37">
         <v>4</v>
       </c>
@@ -2366,11 +3193,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="37">
         <v>4</v>
       </c>
@@ -2383,11 +3210,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="37">
         <v>2</v>
       </c>
@@ -2400,11 +3227,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="37">
         <v>6</v>
       </c>
@@ -2425,11 +3252,11 @@
       <c r="A45" s="33">
         <v>64</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="34">
         <v>2</v>
       </c>
@@ -2448,11 +3275,11 @@
     </row>
     <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
       <c r="L46" s="47" t="s">
@@ -2470,11 +3297,11 @@
         <f>A45+32</f>
         <v>96</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="37">
         <v>2</v>
       </c>
@@ -2493,11 +3320,11 @@
     </row>
     <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
       <c r="L48" s="47" t="s">
@@ -2515,11 +3342,11 @@
         <f>A47+32</f>
         <v>128</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="34">
         <v>2</v>
       </c>
@@ -2538,11 +3365,11 @@
     </row>
     <row r="50" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
       <c r="L50" s="47" t="s">
@@ -2560,11 +3387,11 @@
         <f>A49+32</f>
         <v>160</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="37">
         <v>2</v>
       </c>
@@ -2583,11 +3410,11 @@
     </row>
     <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
       <c r="L52" s="47" t="s">
@@ -2605,11 +3432,11 @@
         <f>A51+32</f>
         <v>192</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="34">
         <v>2</v>
       </c>
@@ -2628,11 +3455,11 @@
     </row>
     <row r="54" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
       <c r="E54" s="34"/>
       <c r="F54" s="35"/>
       <c r="L54" s="47" t="s">
@@ -2650,11 +3477,11 @@
         <f>A53+32</f>
         <v>224</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="37">
         <v>2</v>
       </c>
@@ -2673,11 +3500,11 @@
     </row>
     <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
       <c r="L56" s="47" t="s">
@@ -2695,11 +3522,11 @@
         <f>A55+32</f>
         <v>256</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="34">
         <v>2</v>
       </c>
@@ -2718,11 +3545,11 @@
     </row>
     <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
       <c r="E58" s="34"/>
       <c r="F58" s="35"/>
       <c r="L58" s="47" t="s">
@@ -2740,11 +3567,11 @@
         <f>A57+32</f>
         <v>288</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="37">
         <v>2</v>
       </c>
@@ -2763,11 +3590,11 @@
     </row>
     <row r="60" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
       <c r="L60" s="47" t="s">
@@ -2785,11 +3612,11 @@
         <f>A59+32</f>
         <v>320</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
       <c r="E61" s="34">
         <v>2</v>
       </c>
@@ -2808,11 +3635,11 @@
     </row>
     <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="34"/>
       <c r="F62" s="35"/>
       <c r="L62" s="47" t="s">
@@ -2830,11 +3657,11 @@
         <f>A61+32</f>
         <v>352</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="37">
         <v>2</v>
       </c>
@@ -2853,11 +3680,11 @@
     </row>
     <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
       <c r="L64" s="47" t="s">
@@ -2875,11 +3702,11 @@
         <f>A63+32</f>
         <v>384</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="34">
         <v>2</v>
       </c>
@@ -2898,11 +3725,11 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33"/>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
       <c r="E66" s="34"/>
       <c r="F66" s="35"/>
     </row>
@@ -2911,11 +3738,11 @@
         <f>A65+32</f>
         <v>416</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="37">
         <v>2</v>
       </c>
@@ -2934,11 +3761,11 @@
     </row>
     <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
       <c r="L68" s="50" t="s">
@@ -2956,11 +3783,11 @@
         <f>A67+32</f>
         <v>448</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
       <c r="E69" s="34">
         <v>2</v>
       </c>
@@ -2979,11 +3806,11 @@
     </row>
     <row r="70" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
       <c r="E70" s="34"/>
       <c r="F70" s="35"/>
       <c r="L70" s="44" t="s">
@@ -3001,11 +3828,11 @@
         <f>A69+32</f>
         <v>480</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
       <c r="E71" s="37">
         <v>2</v>
       </c>
@@ -3015,11 +3842,11 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
@@ -3028,11 +3855,11 @@
         <f>A71+32</f>
         <v>512</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
       <c r="E73" s="34">
         <v>2</v>
       </c>
@@ -3042,11 +3869,11 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="34"/>
       <c r="F74" s="35"/>
     </row>
@@ -3055,11 +3882,11 @@
         <f>A73+32</f>
         <v>544</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="37">
         <v>2</v>
       </c>
@@ -3069,11 +3896,11 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
@@ -3082,11 +3909,11 @@
         <f>A75+32</f>
         <v>576</v>
       </c>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
       <c r="E77" s="34">
         <v>2</v>
       </c>
@@ -3096,11 +3923,11 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="34"/>
       <c r="F78" s="35"/>
     </row>
@@ -3109,11 +3936,11 @@
         <f>A77+32</f>
         <v>608</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="37">
         <v>2</v>
       </c>
@@ -3126,16 +3953,127 @@
         <f>A79+26</f>
         <v>634</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
       <c r="E80" s="40">
         <v>6</v>
       </c>
       <c r="F80" s="41">
         <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="81">
+        <v>1</v>
+      </c>
+      <c r="C86" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="82">
+        <v>2</v>
+      </c>
+      <c r="E86" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="82">
+        <v>3</v>
+      </c>
+      <c r="G86" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86" s="82">
+        <v>4</v>
+      </c>
+      <c r="I86" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="J86" s="82">
+        <v>5</v>
+      </c>
+      <c r="K86" s="83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="G88" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="H88" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="J88" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="K88" s="83" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3143,25 +4081,33 @@
     <sortCondition ref="A3:A46"/>
   </sortState>
   <mergeCells count="62">
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3178,33 +4124,25 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pines GPIO.xlsx
+++ b/Pines GPIO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t xml:space="preserve">Los siguientes pines son aptos para usar como GPIO porque no tienen ningun periferico colgado </t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>0x45</t>
+  </si>
+  <si>
+    <t>Input (tienen pull up externo)</t>
   </si>
 </sst>
 </file>
@@ -1143,6 +1146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,15 +1219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2470,23 +2473,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -2636,8 +2639,11 @@
       <c r="H9" s="23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>25</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -2673,43 +2679,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="56" t="s">
+      <c r="H16" s="67"/>
+      <c r="I16" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="60"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -2748,7 +2754,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="19"/>
     </row>
-    <row r="18" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -2787,7 +2793,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="19"/>
     </row>
-    <row r="19" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
@@ -2800,10 +2806,10 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2834,7 @@
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -2862,20 +2868,20 @@
       <c r="K20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="55"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="O20" s="58"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="24" t="s">
         <v>68</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
@@ -2973,28 +2979,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="28" t="s">
         <v>113</v>
       </c>
@@ -3002,15 +3008,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>0</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="31">
         <v>2</v>
       </c>
@@ -3018,16 +3024,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
         <f>A31+E31</f>
         <v>2</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="34">
         <v>9</v>
       </c>
@@ -3035,16 +3041,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <f t="shared" ref="A33:A44" si="0">A32+E32</f>
         <v>11</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="34">
         <v>5</v>
       </c>
@@ -3052,16 +3058,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="34">
         <v>4</v>
       </c>
@@ -3069,16 +3075,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="34">
         <v>4</v>
       </c>
@@ -3086,16 +3092,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="34">
         <v>2</v>
       </c>
@@ -3103,16 +3109,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="34">
         <v>6</v>
       </c>
@@ -3120,16 +3126,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="37">
         <v>2</v>
       </c>
@@ -3137,16 +3143,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="37">
         <v>10</v>
       </c>
@@ -3154,16 +3160,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="36">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="37">
         <v>6</v>
       </c>
@@ -3171,16 +3177,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="37">
         <v>4</v>
       </c>
@@ -3188,16 +3194,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="36">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="37">
         <v>4</v>
       </c>
@@ -3205,16 +3211,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="37">
         <v>2</v>
       </c>
@@ -3222,16 +3228,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="37">
         <v>6</v>
       </c>
@@ -3248,15 +3254,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>64</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="34">
         <v>2</v>
       </c>
@@ -3273,13 +3279,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
       <c r="L46" s="47" t="s">
@@ -3292,16 +3298,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="36">
         <f>A45+32</f>
         <v>96</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="37">
         <v>2</v>
       </c>
@@ -3318,13 +3324,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
       <c r="L48" s="47" t="s">
@@ -3337,16 +3343,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <f>A47+32</f>
         <v>128</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
       <c r="E49" s="34">
         <v>2</v>
       </c>
@@ -3363,13 +3369,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
       <c r="L50" s="47" t="s">
@@ -3382,16 +3388,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
         <f>A49+32</f>
         <v>160</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="37">
         <v>2</v>
       </c>
@@ -3408,13 +3414,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
       <c r="L52" s="47" t="s">
@@ -3427,16 +3433,16 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <f>A51+32</f>
         <v>192</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
       <c r="E53" s="34">
         <v>2</v>
       </c>
@@ -3453,13 +3459,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
-      <c r="B54" s="77" t="s">
+      <c r="B54" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
       <c r="E54" s="34"/>
       <c r="F54" s="35"/>
       <c r="L54" s="47" t="s">
@@ -3472,16 +3478,16 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="36">
         <f>A53+32</f>
         <v>224</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="37">
         <v>2</v>
       </c>
@@ -3498,13 +3504,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
       <c r="L56" s="47" t="s">
@@ -3517,16 +3523,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
         <f>A55+32</f>
         <v>256</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
       <c r="E57" s="34">
         <v>2</v>
       </c>
@@ -3543,13 +3549,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="33"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="34"/>
       <c r="F58" s="35"/>
       <c r="L58" s="47" t="s">
@@ -3562,16 +3568,16 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="36">
         <f>A57+32</f>
         <v>288</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
       <c r="E59" s="37">
         <v>2</v>
       </c>
@@ -3588,13 +3594,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
       <c r="L60" s="47" t="s">
@@ -3607,16 +3613,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="33">
         <f>A59+32</f>
         <v>320</v>
       </c>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="34">
         <v>2</v>
       </c>
@@ -3633,13 +3639,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="33"/>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="34"/>
       <c r="F62" s="35"/>
       <c r="L62" s="47" t="s">
@@ -3652,16 +3658,16 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="36">
         <f>A61+32</f>
         <v>352</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
       <c r="E63" s="37">
         <v>2</v>
       </c>
@@ -3678,13 +3684,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
       <c r="L64" s="47" t="s">
@@ -3697,16 +3703,16 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="33">
         <f>A63+32</f>
         <v>384</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="34">
         <v>2</v>
       </c>
@@ -3723,26 +3729,26 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33"/>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="34"/>
       <c r="F66" s="35"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <f>A65+32</f>
         <v>416</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
       <c r="E67" s="37">
         <v>2</v>
       </c>
@@ -3759,13 +3765,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
       <c r="L68" s="50" t="s">
@@ -3778,16 +3784,16 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="33">
         <f>A67+32</f>
         <v>448</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
       <c r="E69" s="34">
         <v>2</v>
       </c>
@@ -3804,13 +3810,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="33"/>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="34"/>
       <c r="F70" s="35"/>
       <c r="L70" s="44" t="s">
@@ -3823,16 +3829,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="36">
         <f>A69+32</f>
         <v>480</v>
       </c>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="37">
         <v>2</v>
       </c>
@@ -3840,26 +3846,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="36"/>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="33">
         <f>A71+32</f>
         <v>512</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
       <c r="E73" s="34">
         <v>2</v>
       </c>
@@ -3867,26 +3873,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
       <c r="E74" s="34"/>
       <c r="F74" s="35"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="36">
         <f>A73+32</f>
         <v>544</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
       <c r="E75" s="37">
         <v>2</v>
       </c>
@@ -3894,26 +3900,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="36"/>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="33">
         <f>A75+32</f>
         <v>576</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
       <c r="E77" s="34">
         <v>2</v>
       </c>
@@ -3921,26 +3927,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="33"/>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
       <c r="E78" s="34"/>
       <c r="F78" s="35"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="36">
         <f>A77+32</f>
         <v>608</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
       <c r="E79" s="37">
         <v>2</v>
       </c>
@@ -3948,16 +3954,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="39">
         <f>A79+26</f>
         <v>634</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="40">
         <v>6</v>
       </c>
@@ -3965,24 +3971,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="82" t="s">
+      <c r="C84" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="82" t="s">
+      <c r="D84" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E84" s="82" t="s">
+      <c r="E84" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="83" t="s">
+      <c r="F84" s="57" t="s">
         <v>162</v>
       </c>
       <c r="G84" s="54"/>
@@ -3991,7 +3997,7 @@
       <c r="J84" s="54"/>
       <c r="K84" s="54"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="54"/>
       <c r="C85" s="54"/>
       <c r="D85" s="54"/>
@@ -4005,74 +4011,74 @@
       <c r="J85" s="54"/>
       <c r="K85" s="54"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="81">
+      <c r="B86" s="55">
         <v>1</v>
       </c>
-      <c r="C86" s="82" t="s">
+      <c r="C86" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D86" s="82">
+      <c r="D86" s="56">
         <v>2</v>
       </c>
-      <c r="E86" s="82" t="s">
+      <c r="E86" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="F86" s="82">
+      <c r="F86" s="56">
         <v>3</v>
       </c>
-      <c r="G86" s="82" t="s">
+      <c r="G86" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H86" s="82">
+      <c r="H86" s="56">
         <v>4</v>
       </c>
-      <c r="I86" s="82" t="s">
+      <c r="I86" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="J86" s="82">
+      <c r="J86" s="56">
         <v>5</v>
       </c>
-      <c r="K86" s="83" t="s">
+      <c r="K86" s="57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="82" t="s">
+      <c r="C88" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="82" t="s">
+      <c r="D88" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="E88" s="82" t="s">
+      <c r="E88" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="F88" s="82" t="s">
+      <c r="F88" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G88" s="82" t="s">
+      <c r="G88" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="82" t="s">
+      <c r="H88" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="I88" s="82" t="s">
+      <c r="I88" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="J88" s="82" t="s">
+      <c r="J88" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="K88" s="83" t="s">
+      <c r="K88" s="57" t="s">
         <v>178</v>
       </c>
     </row>
